--- a/data/income_statement/3digits/total/382_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/382_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>382-Waste treatment and disposal</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>382-Waste treatment and disposal</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>108673.2927</v>
@@ -962,31 +868,36 @@
         <v>322319.67521</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>620288.42513</v>
+        <v>621488.87527</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1640146.60798</v>
+        <v>1663703.96324</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>675807.4543</v>
+        <v>693858.47627</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>687825.41457</v>
+        <v>687825.61457</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>820838.85029</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1067539.99604</v>
+        <v>1067713.04804</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1593533.60331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1598402.012</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1805869.18</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>103645.43003</v>
@@ -1001,31 +912,36 @@
         <v>307188.47005</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>604771.6140800001</v>
+        <v>605869.99778</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1631715.34505</v>
+        <v>1655192.20711</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>664508.6048999999</v>
+        <v>682460.05889</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>667537.13581</v>
+        <v>667537.3358100001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>772012.10136</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1031409.22295</v>
+        <v>1031582.27495</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1560658.50513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1565415.60521</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1775963.281</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4334.06176</v>
@@ -1043,28 +959,33 @@
         <v>6558.41797</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3781.63792</v>
+        <v>3861.21112</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1936.97877</v>
+        <v>1991.16772</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4661.946640000001</v>
+        <v>4661.94664</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>10878.43085</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>7686.527469999999</v>
+        <v>7686.52747</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8322.91015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8328.21855</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7276.995</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>693.80091</v>
@@ -1079,13 +1000,13 @@
         <v>6825.32568</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8958.39308</v>
+        <v>9060.45952</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4649.62501</v>
+        <v>4650.54501</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9361.870630000001</v>
+        <v>9407.249659999999</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>15626.33212</v>
@@ -1097,13 +1018,18 @@
         <v>28444.24562</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>24552.18803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24658.18824</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>22628.904</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>112.61681</v>
@@ -1121,28 +1047,33 @@
         <v>659.49893</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2218.74491</v>
+        <v>2289.63323</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3064.17958</v>
+        <v>3084.74164</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>2009.93388</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6178.325709999999</v>
+        <v>6178.32571</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>22357.59953</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>10170.55752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>10180.98578</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22028.649</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>85.78720999999999</v>
@@ -1157,13 +1088,13 @@
         <v>1156.17581</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>622.6144899999998</v>
+        <v>622.61449</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>2161.58661</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2589.86165</v>
+        <v>2610.22371</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>1925.96704</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>6044.54291</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>5052.828</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>15.33183</v>
@@ -1199,13 +1135,13 @@
         <v>32.46884</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>57.1583</v>
+        <v>128.04662</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>89.67866000000001</v>
+        <v>89.87866</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>83.39304000000001</v>
+        <v>83.39304</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>476.88741</v>
@@ -1214,13 +1150,18 @@
         <v>350.03163</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1007.21769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1017.64595</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1882.918</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>11.49777</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>3118.79692</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>15092.903</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>108560.67589</v>
@@ -1274,31 +1220,36 @@
         <v>320940.22504</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>619628.9261999999</v>
+        <v>620829.3763400001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1637927.86307</v>
+        <v>1661414.33001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>672743.27472</v>
+        <v>690773.73463</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>685815.4806900001</v>
+        <v>685815.68069</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>814660.5245800001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1045182.39651</v>
+        <v>1045355.44851</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1583363.04579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1588221.02622</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1783840.531</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>82714.02922</v>
@@ -1313,31 +1264,36 @@
         <v>256614.60232</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>511901.68315</v>
+        <v>512877.09495</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1499772.92693</v>
+        <v>1513624.8557</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>558545.3252899999</v>
+        <v>576211.91273</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>578337.36733</v>
+        <v>578337.3673299999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>637251.44412</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>837534.21872</v>
+        <v>837702.3465399999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1321225.88616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1324568.52124</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1415405.651</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>19297.36388</v>
@@ -1349,7 +1305,7 @@
         <v>50685.67889</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>61400.41103</v>
+        <v>61400.41103000001</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>67108.20684</v>
@@ -1358,25 +1314,30 @@
         <v>72979.55695</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>75579.70899</v>
+        <v>75579.70899000001</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>119907.34268</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>89094.70491000001</v>
+        <v>89094.70491</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>93651.77282000001</v>
+        <v>93651.77282</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>151956.19926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>152309.0762</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>611004.751</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>11184.28902</v>
@@ -1391,13 +1352,13 @@
         <v>51819.54768</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>287514.02039</v>
+        <v>287840.84619</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1249103.72012</v>
+        <v>1249116.66652</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>284387.84127</v>
+        <v>284555.1136</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>232493.03469</v>
@@ -1406,16 +1367,21 @@
         <v>259106.76268</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>396447.45582</v>
+        <v>396615.58364</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>721566.2350399999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>721802.32297</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>409106.803</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>52232.37632</v>
@@ -1430,31 +1396,36 @@
         <v>143274.22463</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>157158.55504</v>
+        <v>157807.14104</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>177162.82219</v>
+        <v>191001.80456</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>198318.51274</v>
+        <v>215817.82785</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>216160.45911</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>273851.2786500001</v>
+        <v>273851.27865</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>335319.80771</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>442584.66065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>445338.33086</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>374459.832</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1472,13 +1443,13 @@
         <v>120.90088</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>526.82767</v>
+        <v>526.8276699999999</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>259.26229</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9776.530850000001</v>
+        <v>9776.530849999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>15198.69788</v>
@@ -1487,13 +1458,18 @@
         <v>12115.18237</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5118.79121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5118.791210000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20834.265</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>25846.64667</v>
@@ -1508,31 +1484,36 @@
         <v>64325.62272</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>107727.24305</v>
+        <v>107952.28139</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>138154.93614</v>
+        <v>147789.47431</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>114197.94943</v>
+        <v>114561.8219</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>107478.11336</v>
+        <v>107478.31336</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>177409.08046</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>207648.17779</v>
+        <v>207653.10197</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>262137.15963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>263652.50498</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>368434.88</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>16351.44298</v>
@@ -1547,31 +1528,36 @@
         <v>37201.4159</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>53225.931</v>
+        <v>53323.43901</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>80349.53140000001</v>
+        <v>82697.31305</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>87534.40936000001</v>
+        <v>91110.01699</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>101167.05952</v>
+        <v>101196.22588</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>115260.42387</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>145967.97907</v>
+        <v>146034.20556</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>162380.01968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>163796.37388</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>234318.969</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.858929999999999</v>
@@ -1589,7 +1575,7 @@
         <v>11.87188</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>46.45144999999999</v>
+        <v>73.61547999999999</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>57.1933</v>
@@ -1606,20 +1592,25 @@
       <c r="M21" s="48" t="n">
         <v>114.15279</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1319.243</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1534.88837</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3232.226229999999</v>
+        <v>3232.22623</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>7447.441720000001</v>
+        <v>7447.44172</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>6441.14667</v>
@@ -1628,10 +1619,10 @@
         <v>10652.99267</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>14829.80563</v>
+        <v>15793.99549</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>12135.68356</v>
+        <v>12865.68868</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>11671.32296</v>
@@ -1643,13 +1634,18 @@
         <v>28574.71972</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27022.49148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27056.2844</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>36020.462</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>14808.69568</v>
@@ -1664,31 +1660,36 @@
         <v>30690.27792</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>42561.06645000001</v>
+        <v>42658.57446</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>65473.27431999999</v>
+        <v>66829.70208</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>75341.5325</v>
+        <v>78187.13500999998</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>89482.68775</v>
+        <v>89511.85411</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>96306.93017000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>117392.1432</v>
+        <v>117458.36969</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>135243.37541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>136625.93669</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>196979.264</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>9495.203690000002</v>
@@ -1703,37 +1704,42 @@
         <v>27124.20682</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>54501.31205</v>
+        <v>54628.84238</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>57805.40474000001</v>
+        <v>65092.16125999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>26663.54007</v>
+        <v>23451.80491</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6311.05384</v>
+        <v>6282.08748</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>62148.65659000001</v>
+        <v>62148.65659</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>61680.19872000001</v>
+        <v>61618.89641</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>99757.13995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>99856.1311</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>134115.911</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>16972.98834</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7666.612730000001</v>
+        <v>7666.61273</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>6345.050939999999</v>
@@ -1745,10 +1751,10 @@
         <v>12685.16727</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>16701.57772</v>
+        <v>17505.04016</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>39529.70881</v>
+        <v>45799.382</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>38693.90008</v>
@@ -1760,13 +1766,18 @@
         <v>122997.69213</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>65152.57569999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>65123.46004000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>222820.557</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>174.3087</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8947.460650000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>61.155</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>95.17063</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5594.276</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6998.985569999999</v>
+        <v>6998.985570000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>4147.53359</v>
@@ -1859,13 +1880,13 @@
         <v>5201.78124</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6804.008519999998</v>
+        <v>6804.00852</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8681.238069999999</v>
+        <v>9277.917609999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>10569.60976</v>
+        <v>11432.40442</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>13539.09389</v>
@@ -1877,13 +1898,18 @@
         <v>15836.82541</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>19841.68343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19847.34755</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>49034.199</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>567.319</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>725.19492</v>
@@ -1940,10 +1971,10 @@
         <v>1092.69271</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>964.29813</v>
+        <v>967.10735</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>586.7852699999999</v>
+        <v>586.9622699999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>814.31399</v>
@@ -1952,16 +1983,21 @@
         <v>657.9909</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>432.5428899999999</v>
+        <v>432.54289</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>661.42001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1041.269</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>198.09891</v>
@@ -1979,7 +2015,7 @@
         <v>12.60411</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>59.73585000000001</v>
+        <v>59.73585</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>74.49243</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>26.483</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>8902.977030000002</v>
@@ -2012,16 +2053,16 @@
         <v>1862.22892</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5723.491629999999</v>
+        <v>5723.49163</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>3579.72046</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5436.19477</v>
+        <v>5640.168449999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>16576.42725</v>
+        <v>21863.73839</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>10147.39489</v>
@@ -2033,13 +2074,18 @@
         <v>87759.54065000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>22201.3142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22202.73752</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>155189.99</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>-26.57679000000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>16.04290000000001</v>
+        <v>16.0429</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>1467.12011</v>
@@ -2138,31 +2194,36 @@
         <v>1319.6341</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3640.39145</v>
+        <v>3759.78184</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6446.25195</v>
+        <v>6446.251949999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9220.642949999999</v>
+        <v>9220.642950000001</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>10629.84551</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13405.52678</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13369.32368</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11305.483</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9662.811940000001</v>
+        <v>9662.81194</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4900.26728</v>
+        <v>4900.267279999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>13246.08304</v>
@@ -2174,10 +2235,10 @@
         <v>17555.74979</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19128.94962</v>
+        <v>19345.16519</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>45266.15598</v>
+        <v>48814.58845</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>37236.31324</v>
@@ -2189,13 +2250,18 @@
         <v>107570.1819</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>50280.53034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>50290.01245</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>218443.18</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>141.26012</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>16.86155</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>78.809</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>860.9777999999999</v>
@@ -2252,10 +2323,10 @@
         <v>2459.63077</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4054.93877</v>
+        <v>4099.08874</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2517.68443</v>
+        <v>2538.29039</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>3382.19824</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2644.2323</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>884.605</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>8642.05207</v>
@@ -2330,10 +2411,10 @@
         <v>14055.86559</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>13519.75321</v>
+        <v>13691.81881</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>42088.03061</v>
+        <v>45615.85712000001</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>33201.68492</v>
@@ -2345,13 +2426,18 @@
         <v>104201.73781</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>46460.06494999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>46460.95372</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>216032.248</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0.38283</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>18.52195</v>
@@ -2450,10 +2546,10 @@
         <v>1440.76336</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>636.8876799999999</v>
+        <v>636.88768</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>613.9282999999999</v>
+        <v>613.9283</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2408.80719</v>
@@ -2462,13 +2558,18 @@
         <v>1048.07958</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1158.98871</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1167.58205</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1447.518</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>8835.502060000001</v>
@@ -2483,13 +2584,13 @@
         <v>8351.001910000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>13565.59686</v>
+        <v>13577.02816</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>21308.83966</v>
+        <v>21580.8217</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>27142.84288</v>
+        <v>27615.66833</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>28591.53207</v>
@@ -2501,13 +2602,18 @@
         <v>70754.75214</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>53689.48847</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>53741.19079000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>115009.126</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5305.53242</v>
@@ -2519,16 +2625,16 @@
         <v>2854.96292</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5294.09153</v>
+        <v>5294.091530000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9731.843459999998</v>
+        <v>9740.211519999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>13512.52103</v>
+        <v>13784.50307</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>19123.121</v>
+        <v>19595.94645</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>19315.15351</v>
@@ -2537,16 +2643,21 @@
         <v>27363.71619</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>57968.53332000001</v>
+        <v>57968.53332</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>42182.39953</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>42232.70964</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>107523.905</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3529.96964</v>
@@ -2561,7 +2672,7 @@
         <v>3056.91038</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3833.7534</v>
+        <v>3836.81664</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>7796.318630000001</v>
@@ -2579,16 +2690,21 @@
         <v>12786.21882</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11507.08894</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>11508.48115</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7485.221</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7969.878030000001</v>
+        <v>7969.878029999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>715.1220800000001</v>
@@ -2600,37 +2716,42 @@
         <v>27480.34836</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>36065.13267</v>
+        <v>36181.2317</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>34069.19318</v>
+        <v>41671.21453</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-6215.74998</v>
+        <v>-7179.069870000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-20822.89139</v>
+        <v>-20851.85775</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>45530.69383999999</v>
+        <v>45530.69384000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>6352.956810000001</v>
+        <v>6291.654500000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>60939.69684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>60948.3879</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>23484.162</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1426.30428</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7673.67688</v>
+        <v>7673.676879999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1306.46271</v>
@@ -2642,13 +2763,13 @@
         <v>5785.1835</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3321.54367</v>
+        <v>3585.67915</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6390.5113</v>
+        <v>7686.46796</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4845.65982</v>
+        <v>4849.96932</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>11350.65958</v>
@@ -2657,13 +2778,18 @@
         <v>14457.21431</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>21274.14945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>21276.91148</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48141.107</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>57.9802</v>
@@ -2696,13 +2822,18 @@
         <v>0.11364</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>53.13713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>53.13713000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12.939</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1368.32408</v>
@@ -2720,13 +2851,13 @@
         <v>5767.52653</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3285.92439</v>
+        <v>3550.05987</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6373.11446</v>
+        <v>7669.071120000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4832.74662</v>
+        <v>4837.05612</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>11348.20909</v>
@@ -2735,13 +2866,18 @@
         <v>14457.10067</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>21221.01232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>21223.77435</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>48128.168</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2461.26445</v>
@@ -2750,19 +2886,19 @@
         <v>6516.84633</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4281.24215</v>
+        <v>4281.242149999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3608.382090000001</v>
+        <v>3608.38209</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5111.079669999999</v>
+        <v>5111.07967</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>11730.94009</v>
+        <v>12418.19698</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6249.79</v>
+        <v>6572.190900000001</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>22082.79865</v>
@@ -2771,16 +2907,21 @@
         <v>22503.8787</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>28339.13541</v>
+        <v>28350.87015</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46407.53288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>46478.28604000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24584.179</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2813,13 +2954,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3966.60632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4016.06224</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4584.308</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>5.68207</v>
@@ -2852,19 +2998,24 @@
         <v>1031.10975</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>197.39716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>181.5892</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>619.347</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2455.58238</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6205.699100000001</v>
+        <v>6205.6991</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>4205.73144</v>
@@ -2873,13 +3024,13 @@
         <v>3422.62914</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4469.416710000001</v>
+        <v>4469.41671</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11114.4941</v>
+        <v>11801.75099</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5906.37469</v>
+        <v>6228.77559</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>21785.38863</v>
@@ -2888,55 +3039,65 @@
         <v>19559.64918</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>27308.02566</v>
+        <v>27319.7604</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>42243.5294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>42280.6346</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>19380.524</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6934.917860000001</v>
+        <v>6934.91786</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>1871.95263</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-475.85164</v>
+        <v>-475.8516400000001</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>26539.986</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>36739.2365</v>
+        <v>36855.33553</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>25659.79676</v>
+        <v>32838.6967</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-6075.028679999999</v>
+        <v>-6064.792809999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-38060.03022</v>
+        <v>-38084.68708</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>34377.47472</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7528.96429</v>
+        <v>-7602.00134</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>35806.31341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>35747.01334</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>47041.09</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>722.5003999999999</v>
@@ -2954,10 +3115,10 @@
         <v>10177.45741</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7850.815050000001</v>
+        <v>9310.311879999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5466.695809999999</v>
+        <v>5745.979739999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>5399.95336</v>
@@ -2969,19 +3130,24 @@
         <v>8476.01273</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>20587.47436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>20603.78133</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>36024.232</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>6212.417460000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>673.4212599999997</v>
+        <v>673.4212600000002</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-3865.67707</v>
@@ -2990,28 +3156,31 @@
         <v>23277.44901</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>26561.77909</v>
+        <v>26677.87812</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>17808.98171</v>
+        <v>23528.38482</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-11541.72449</v>
+        <v>-11810.77255</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-43459.98358</v>
+        <v>-43484.64044</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>26895.8247</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-16004.97702</v>
+        <v>-16078.01407</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15218.83905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15143.23201</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11016.858</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>59</v>
@@ -3044,28 +3216,31 @@
         <v>94</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>206</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>255</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>